--- a/vegresults/Specialization_trial_metadata.xlsx
+++ b/vegresults/Specialization_trial_metadata.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\Documents\GitHub\Chatfield_restoration\vegresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A689B1A-3537-427A-B9E8-AB301CBF2F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="0" windowWidth="12015" windowHeight="3615"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2019_2020" sheetId="1" r:id="rId1"/>
+    <sheet name="2021" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>Data table metadata</t>
   </si>
@@ -116,9 +118,6 @@
     <t>0-100</t>
   </si>
   <si>
-    <t>Veg_surveys_specialization.xlsx</t>
-  </si>
-  <si>
     <t>Visual cover estimate in cell 1; 2 ft north of row centerline</t>
   </si>
   <si>
@@ -138,9 +137,6 @@
   </si>
   <si>
     <t>Surveyors</t>
-  </si>
-  <si>
-    <t>2019 - N. Shackelford; 2020 - M. Steuber</t>
   </si>
   <si>
     <r>
@@ -165,11 +161,62 @@
       <t xml:space="preserve"> 1 ft; note that bare ground cover was not recorded in 2020</t>
     </r>
   </si>
+  <si>
+    <t>2019 - N. Shackelford; 2020 - M. Stueber</t>
+  </si>
+  <si>
+    <t>Veg_surveys_specialization_b.xlsx</t>
+  </si>
+  <si>
+    <t>Veg_surveys_specialization_a.xlsx</t>
+  </si>
+  <si>
+    <t>one timepoint - June 15 - July 9, 2021</t>
+  </si>
+  <si>
+    <t>M. Stueber</t>
+  </si>
+  <si>
+    <t>Data table structure and attribute description: LPI</t>
+  </si>
+  <si>
+    <t>Data table structure and attribute description: Belt</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>1-30</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Thie data was collected using two methods, and every year will be stored as two datasheets (one per method). The first method, labeled "LPI", represents a line-point-intercept method. A 30 meter transect was laid in the center of the row. At every meter mark, the all plants touching the line were recorded, in order of highest (tallest, over story) to ground. The second method, labeled "Belt", used the same transect, but recorded any species NOT found in the LPI survey that occurred within 1 meter of the transect line.</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>distance from bottom (northern-most point) of the row</t>
+  </si>
+  <si>
+    <t>Canopy order</t>
+  </si>
+  <si>
+    <t>order in which each species occurred, from top (over story) to ground level, with 1 meaning it was the tallest species, down to 4 meaning it was the species closest to the ground. Species were not recorded more than once per point, regardless of whether they were hit multiple times</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -276,6 +323,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,11 +609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -613,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -623,7 +676,7 @@
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>38</v>
@@ -652,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -720,7 +773,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -756,7 +809,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
@@ -776,7 +829,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
@@ -795,7 +848,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
@@ -814,7 +867,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -837,4 +890,296 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5770D9E-5E55-4DA2-90C4-0521DF3CB113}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="96.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vegresults/Specialization_trial_metadata.xlsx
+++ b/vegresults/Specialization_trial_metadata.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\Documents\GitHub\Chatfield_restoration\vegresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A689B1A-3537-427A-B9E8-AB301CBF2F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6BA475-677C-47ED-B404-473C95DC0F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019_2020" sheetId="1" r:id="rId1"/>
-    <sheet name="2021" sheetId="2" r:id="rId2"/>
+    <sheet name="2021-2022" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -171,12 +171,6 @@
     <t>Veg_surveys_specialization_a.xlsx</t>
   </si>
   <si>
-    <t>one timepoint - June 15 - July 9, 2021</t>
-  </si>
-  <si>
-    <t>M. Stueber</t>
-  </si>
-  <si>
     <t>Data table structure and attribute description: LPI</t>
   </si>
   <si>
@@ -211,6 +205,12 @@
   </si>
   <si>
     <t>Ordinal</t>
+  </si>
+  <si>
+    <t>two timepoints - June 15 - July 9, 2021; June 23-Aug 1, 2022</t>
+  </si>
+  <si>
+    <t>M. Stueber; S. Ahler</t>
   </si>
 </sst>
 </file>
@@ -318,6 +318,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -326,9 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,79 +639,79 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -897,7 +897,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,83 +923,83 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1050,36 +1050,36 @@
     </row>
     <row r="11" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8" t="s">
@@ -1105,7 +1105,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>

--- a/vegresults/Specialization_trial_metadata.xlsx
+++ b/vegresults/Specialization_trial_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\Documents\GitHub\Chatfield_restoration\vegresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6BA475-677C-47ED-B404-473C95DC0F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF85CA6E-400B-4201-BB89-9A5712DF00C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>Data table metadata</t>
   </si>
@@ -177,18 +177,12 @@
     <t>Data table structure and attribute description: Belt</t>
   </si>
   <si>
-    <t>Point</t>
-  </si>
-  <si>
     <t>1-30</t>
   </si>
   <si>
     <t>meters</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Thie data was collected using two methods, and every year will be stored as two datasheets (one per method). The first method, labeled "LPI", represents a line-point-intercept method. A 30 meter transect was laid in the center of the row. At every meter mark, the all plants touching the line were recorded, in order of highest (tallest, over story) to ground. The second method, labeled "Belt", used the same transect, but recorded any species NOT found in the LPI survey that occurred within 1 meter of the transect line.</t>
   </si>
   <si>
@@ -211,6 +205,18 @@
   </si>
   <si>
     <t>M. Stueber; S. Ahler</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>spp</t>
   </si>
 </sst>
 </file>
@@ -291,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -305,7 +311,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -318,17 +324,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,79 +639,79 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -897,7 +897,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,79 +923,79 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1033,7 +1033,7 @@
     </row>
     <row r="10" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -1050,36 +1050,36 @@
     </row>
     <row r="11" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8" t="s">
@@ -1088,7 +1088,7 @@
     </row>
     <row r="13" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>24</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="16" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="17" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>24</v>

--- a/vegresults/Specialization_trial_metadata.xlsx
+++ b/vegresults/Specialization_trial_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\Documents\GitHub\Chatfield_restoration\vegresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF85CA6E-400B-4201-BB89-9A5712DF00C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2E50C0-6367-4571-8073-EE88498A5EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,12 +201,6 @@
     <t>Ordinal</t>
   </si>
   <si>
-    <t>two timepoints - June 15 - July 9, 2021; June 23-Aug 1, 2022</t>
-  </si>
-  <si>
-    <t>M. Stueber; S. Ahler</t>
-  </si>
-  <si>
     <t>row</t>
   </si>
   <si>
@@ -217,6 +211,12 @@
   </si>
   <si>
     <t>spp</t>
+  </si>
+  <si>
+    <t>three timepoints - June 15 - July 9, 2021; June 23-Aug 1, 2022; June 24 - July 5, 2023</t>
+  </si>
+  <si>
+    <t>M. Stueber; S. Ahler; N. Shackelford</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -963,7 +963,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="10" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="11" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>46</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="12" spans="1:7" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>48</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="13" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>24</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="16" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="17" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>24</v>
